--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/6410613/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7503C-471C-A043-A7EA-7D2FCDE5ACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1868E06D-E549-6241-AD7B-B2A5073992B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{2E7E7E1C-4607-7345-95A1-C85E7C42F120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PLAYER</t>
   </si>
@@ -48,16 +48,22 @@
     <t>GAME_3</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
     <t>Sandra</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Dina</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8865253-C643-1249-97A5-DDDACFB1829A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +439,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -453,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -461,13 +467,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -475,15 +481,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
